--- a/public/userPassword.xlsx
+++ b/public/userPassword.xlsx
@@ -51,19 +51,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="0" t="inlineStr">
         <is>
           <t>abcd1@test.com</t>
@@ -71,11 +76,16 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
+          <t>+91 8128675787</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
           <t>1234567890</t>
         </is>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="0" t="inlineStr">
         <is>
           <t>abcd3@test.com</t>
@@ -83,11 +93,16 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
+          <t>+91 8158675787</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
           <t>1234567890</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="0" t="inlineStr">
         <is>
           <t>abcd4@test.com</t>
@@ -95,11 +110,16 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
+          <t>+91 972040244</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
           <t>1234567890</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="0" t="inlineStr">
         <is>
           <t>abcd5@test.com</t>
@@ -107,17 +127,27 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
+          <t>+91 81558675787</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
           <t>1234567890</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="0" t="inlineStr">
         <is>
           <t>abcd6@test.com</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>+91 992040244</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>1234567890</t>
         </is>

--- a/public/userPassword.xlsx
+++ b/public/userPassword.xlsx
@@ -51,7 +51,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="0" t="inlineStr">
         <is>
           <t>Email</t>
@@ -59,16 +59,11 @@
       </c>
       <c r="B1" s="0" t="inlineStr">
         <is>
-          <t>Number</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
           <t>password</t>
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" s="0" t="inlineStr">
         <is>
           <t>abcd1@test.com</t>
@@ -76,16 +71,11 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>+91 8128675787</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
           <t>1234567890</t>
         </is>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="0" t="inlineStr">
         <is>
           <t>abcd3@test.com</t>
@@ -93,61 +83,17 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>+91 8158675787</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
           <t>1234567890</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>abcd4@test.com</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>+91 972040244</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>1234567890</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>abcd5@test.com</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>+91 81558675787</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>1234567890</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>abcd6@test.com</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>+91 992040244</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>1234567890</t>
         </is>

--- a/public/userPassword.xlsx
+++ b/public/userPassword.xlsx
@@ -66,7 +66,7 @@
     <row r="2" spans="1:2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>abcd1@test.com</t>
+          <t>kailaspb@test.com</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -78,7 +78,7 @@
     <row r="3" spans="1:2">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>abcd3@test.com</t>
+          <t>krushnapb@test.com</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -90,7 +90,7 @@
     <row r="4" spans="1:2">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>abcd6@test.com</t>
+          <t>arunv@test.com</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -99,6 +99,78 @@
         </is>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>kailasbm@test.com</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>zoneh@test.com</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>leejaw@test.com</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>leejas@test.com</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>zonehb@test.com</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>kailasblr@test.com</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>